--- a/biology/Zoologie/Conus_piti/Conus_piti.xlsx
+++ b/biology/Zoologie/Conus_piti/Conus_piti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus piti est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus piti a été décrite pour la première fois en 2019 par les malacologistes Michael Rabiller[1] et Richard (d)[2] dans Xenophora Taxonomy[3],[4].
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus piti a été décrite pour la première fois en 2019 par les malacologistes Michael Rabiller et Richard (d) dans Xenophora Taxonomy,.
 </t>
         </is>
       </c>
